--- a/metals_test/basis-set-test/results.xlsx
+++ b/metals_test/basis-set-test/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/metals_test/basis-set-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44ED7CD-B927-D24C-A247-84905DFD74F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB51D1-D212-F44A-BA49-C474C3CED450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="500" windowWidth="47260" windowHeight="26340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45740" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -828,32 +828,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -900,7 +897,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -912,13 +909,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1254,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2098,88 +2088,88 @@
       </c>
     </row>
     <row r="19" spans="7:23" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="M19" s="11" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="M19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="S19" s="7" t="s">
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="S19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
     </row>
     <row r="20" spans="7:23" x14ac:dyDescent="0.2">
-      <c r="S20" s="7" t="s">
+      <c r="S20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" spans="7:23" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="M21" s="5" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="M21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="7:23" x14ac:dyDescent="0.2">
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="7:23" x14ac:dyDescent="0.2">
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="7:23" x14ac:dyDescent="0.2">
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="7:23" x14ac:dyDescent="0.2">
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:W44">

--- a/metals_test/basis-set-test/results.xlsx
+++ b/metals_test/basis-set-test/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/metals_test/basis-set-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB51D1-D212-F44A-BA49-C474C3CED450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35867EA1-0D21-6E43-B4E5-4C51475A7E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="45740" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45740" windowHeight="26840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -1244,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="150" zoomScaleNormal="133" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="133" workbookViewId="0">
       <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
